--- a/DataCompilation/PythonCompilation.xlsx
+++ b/DataCompilation/PythonCompilation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larissa\Desktop\C++Project\Husky\DataCompilation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,38 +19,47 @@
     <definedName name="ints_times1_1" localSheetId="0">Sheet1!$A$33:$B$54</definedName>
     <definedName name="ints_times1_2" localSheetId="0">Sheet1!$A$61:$B$82</definedName>
     <definedName name="ints_times1_3" localSheetId="0">Sheet1!$A$89:$B$110</definedName>
+    <definedName name="ints_times1_4" localSheetId="0">Sheet1!$A$117:$B$138</definedName>
     <definedName name="ints_times2" localSheetId="0">Sheet1!$C$5:$C$26</definedName>
     <definedName name="ints_times2_1" localSheetId="0">Sheet1!$C$33:$C$54</definedName>
     <definedName name="ints_times2_2" localSheetId="0">Sheet1!$C$61:$C$82</definedName>
     <definedName name="ints_times2_3" localSheetId="0">Sheet1!$C$89:$C$110</definedName>
+    <definedName name="ints_times2_4" localSheetId="0">Sheet1!$C$117:$C$138</definedName>
     <definedName name="ints_times3" localSheetId="0">Sheet1!$D$5:$D$26</definedName>
     <definedName name="ints_times3_1" localSheetId="0">Sheet1!$D$33:$D$54</definedName>
     <definedName name="ints_times3_2" localSheetId="0">Sheet1!$H$33:$H$54</definedName>
     <definedName name="ints_times3_3" localSheetId="0">Sheet1!$D$61:$D$82</definedName>
     <definedName name="ints_times3_4" localSheetId="0">Sheet1!$D$89:$D$110</definedName>
+    <definedName name="ints_times3_5" localSheetId="0">Sheet1!$D$117:$D$138</definedName>
     <definedName name="records_times1" localSheetId="0">Sheet1!$F$5:$F$26</definedName>
     <definedName name="records_times1_1" localSheetId="0">Sheet1!$F$33:$F$54</definedName>
     <definedName name="records_times1_2" localSheetId="0">Sheet1!$F$61:$F$82</definedName>
     <definedName name="records_times1_3" localSheetId="0">Sheet1!$F$89:$F$110</definedName>
+    <definedName name="records_times1_4" localSheetId="0">Sheet1!$F$117:$F$138</definedName>
     <definedName name="records_times2" localSheetId="0">Sheet1!$G$5:$G$26</definedName>
     <definedName name="records_times2_1" localSheetId="0">Sheet1!$G$33:$G$54</definedName>
     <definedName name="records_times2_2" localSheetId="0">Sheet1!$G$61:$G$82</definedName>
     <definedName name="records_times2_3" localSheetId="0">Sheet1!$G$89:$G$110</definedName>
+    <definedName name="records_times2_4" localSheetId="0">Sheet1!$G$117:$G$138</definedName>
     <definedName name="records_times3" localSheetId="0">Sheet1!$H$5:$H$26</definedName>
     <definedName name="records_times3_1" localSheetId="0">Sheet1!$H$61:$H$82</definedName>
     <definedName name="records_times3_2" localSheetId="0">Sheet1!$H$89:$H$110</definedName>
+    <definedName name="records_times3_3" localSheetId="0">Sheet1!$H$117:$H$138</definedName>
     <definedName name="strings_times1" localSheetId="0">Sheet1!$J$5:$K$30</definedName>
     <definedName name="strings_times1_1" localSheetId="0">Sheet1!$J$33:$K$58</definedName>
     <definedName name="strings_times1_2" localSheetId="0">Sheet1!$J$61:$K$86</definedName>
     <definedName name="strings_times1_3" localSheetId="0">Sheet1!$J$89:$K$114</definedName>
+    <definedName name="strings_times1_4" localSheetId="0">Sheet1!$J$117:$K$142</definedName>
     <definedName name="strings_times2" localSheetId="0">Sheet1!$L$5:$L$30</definedName>
     <definedName name="strings_times2_1" localSheetId="0">Sheet1!$L$33:$L$58</definedName>
     <definedName name="strings_times2_2" localSheetId="0">Sheet1!$L$61:$L$86</definedName>
     <definedName name="strings_times2_3" localSheetId="0">Sheet1!$L$89:$L$114</definedName>
+    <definedName name="strings_times2_4" localSheetId="0">Sheet1!$L$117:$L$142</definedName>
     <definedName name="strings_times3" localSheetId="0">Sheet1!$M$5:$M$30</definedName>
     <definedName name="strings_times3_1" localSheetId="0">Sheet1!$M$33:$M$58</definedName>
     <definedName name="strings_times3_2" localSheetId="0">Sheet1!$M$61:$M$86</definedName>
     <definedName name="strings_times3_3" localSheetId="0">Sheet1!$M$89:$M$114</definedName>
+    <definedName name="strings_times3_4" localSheetId="0">Sheet1!$M$117:$M$142</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -95,7 +104,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="ints-times2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="5" name="ints-times14" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\ints-times1.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="ints-times2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\ints-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -103,7 +120,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="ints-times21" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="7" name="ints-times21" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\ints-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -111,7 +128,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="ints-times22" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" name="ints-times22" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\ints-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -119,7 +136,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="ints-times23" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="9" name="ints-times23" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\ints-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -127,7 +144,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="ints-times3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="10" name="ints-times24" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\ints-times2.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="ints-times3" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\ints-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -135,7 +160,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="ints-times31" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="ints-times31" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\ints-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -143,7 +168,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="ints-times32" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="ints-times32" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\ints-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -151,7 +176,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="ints-times33" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="ints-times33" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\ints-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -159,7 +184,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="ints-times34" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="ints-times34" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\ints-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -167,7 +192,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="records-times1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="ints-times35" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\ints-times3.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="17" name="records-times1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\records-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -175,7 +208,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="records-times11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="records-times11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\records-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -183,7 +216,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="records-times12" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="records-times12" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\records-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -191,7 +224,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="records-times13" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="records-times13" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\records-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -199,7 +232,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" name="records-times2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="records-times14" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\records-times1.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="22" name="records-times2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\records-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -207,7 +248,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" name="records-times21" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="records-times21" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\records-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -215,7 +256,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" name="records-times22" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="records-times22" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\records-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -223,7 +264,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" name="records-times23" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="records-times23" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\records-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -231,7 +272,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" name="records-times3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="records-times24" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\records-times2.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="27" name="records-times3" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\records-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -239,7 +288,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="23" name="records-times31" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="records-times31" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\records-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -247,7 +296,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="24" name="records-times32" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="records-times32" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\records-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -255,7 +304,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="25" name="strings-times1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="records-times33" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\records-times3.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="31" name="strings-times1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\strings-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -263,7 +320,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="26" name="strings-times11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="strings-times11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\strings-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -271,7 +328,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="27" name="strings-times12" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="strings-times12" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\strings-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -279,7 +336,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="28" name="strings-times13" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="strings-times13" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\strings-times1.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -287,7 +344,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="29" name="strings-times2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="strings-times14" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\strings-times1.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="36" name="strings-times2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\strings-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -295,7 +360,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="30" name="strings-times21" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="strings-times21" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\strings-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -303,7 +368,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="31" name="strings-times22" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="strings-times22" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\strings-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -311,7 +376,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="32" name="strings-times23" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="strings-times23" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\strings-times2.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -319,7 +384,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="33" name="strings-times3" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="strings-times24" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\strings-times2.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="41" name="strings-times3" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N1\strings-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -327,7 +400,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="34" name="strings-times31" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="strings-times31" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N2\strings-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -335,7 +408,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="35" name="strings-times32" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="strings-times32" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N3\strings-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
@@ -343,8 +416,16 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="36" name="strings-times33" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="strings-times33" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N4\strings-times3.txt" decimal="," thousands="." space="1" consecutive="1">
+      <textFields count="2">
+        <textField type="skip"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="45" name="strings-times34" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Larissa\Desktop\C++Project\Husky\Tests\Python\N5\strings-times3.txt" decimal="," thousands="." space="1" consecutive="1">
       <textFields count="2">
         <textField type="skip"/>
         <textField type="text"/>
@@ -355,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="634">
   <si>
     <t>Python (times in ms)</t>
   </si>
@@ -1891,6 +1972,372 @@
   </si>
   <si>
     <t>5.025999999999975</t>
+  </si>
+  <si>
+    <t>N = 500000</t>
+  </si>
+  <si>
+    <t>0.0039999999996709334</t>
+  </si>
+  <si>
+    <t>5.231999999999903</t>
+  </si>
+  <si>
+    <t>9.778999999999982</t>
+  </si>
+  <si>
+    <t>3.3529999999997173</t>
+  </si>
+  <si>
+    <t>3.5970000000000724</t>
+  </si>
+  <si>
+    <t>3.918000000000088</t>
+  </si>
+  <si>
+    <t>59.81699999999979</t>
+  </si>
+  <si>
+    <t>122.34699999999998</t>
+  </si>
+  <si>
+    <t>222.53000000000034</t>
+  </si>
+  <si>
+    <t>323.423</t>
+  </si>
+  <si>
+    <t>4.839000000000482</t>
+  </si>
+  <si>
+    <t>3.5669999999994317</t>
+  </si>
+  <si>
+    <t>5.793000000000159</t>
+  </si>
+  <si>
+    <t>9.961000000000109</t>
+  </si>
+  <si>
+    <t>3.413999999999806</t>
+  </si>
+  <si>
+    <t>2.809999999999757</t>
+  </si>
+  <si>
+    <t>2.8329999999998634</t>
+  </si>
+  <si>
+    <t>65.77100000000024</t>
+  </si>
+  <si>
+    <t>116.97099999999993</t>
+  </si>
+  <si>
+    <t>257.4569999999996</t>
+  </si>
+  <si>
+    <t>324.75300000000027</t>
+  </si>
+  <si>
+    <t>0.001999999998503199</t>
+  </si>
+  <si>
+    <t>0.06100000000053285</t>
+  </si>
+  <si>
+    <t>0.007999999999341867</t>
+  </si>
+  <si>
+    <t>4.933000000001186</t>
+  </si>
+  <si>
+    <t>4.060000000000841</t>
+  </si>
+  <si>
+    <t>5.347999999999686</t>
+  </si>
+  <si>
+    <t>9.456999999999827</t>
+  </si>
+  <si>
+    <t>3.4410000000000274</t>
+  </si>
+  <si>
+    <t>3.0129999999997104</t>
+  </si>
+  <si>
+    <t>2.774000000000054</t>
+  </si>
+  <si>
+    <t>61.40299999999988</t>
+  </si>
+  <si>
+    <t>119.19400000000024</t>
+  </si>
+  <si>
+    <t>214.49300000000005</t>
+  </si>
+  <si>
+    <t>313.6049999999999</t>
+  </si>
+  <si>
+    <t>0.05200000000016303</t>
+  </si>
+  <si>
+    <t>4.421999999999926</t>
+  </si>
+  <si>
+    <t>3.462999999999994</t>
+  </si>
+  <si>
+    <t>5.266999999999911</t>
+  </si>
+  <si>
+    <t>12.017999999999862</t>
+  </si>
+  <si>
+    <t>5.888999999999811</t>
+  </si>
+  <si>
+    <t>4.3350000000002</t>
+  </si>
+  <si>
+    <t>4.939999999999944</t>
+  </si>
+  <si>
+    <t>137.8379999999999</t>
+  </si>
+  <si>
+    <t>1012.4140000000001</t>
+  </si>
+  <si>
+    <t>1493.5500000000009</t>
+  </si>
+  <si>
+    <t>351.2499999999994</t>
+  </si>
+  <si>
+    <t>5.25299999999973</t>
+  </si>
+  <si>
+    <t>4.49400000000022</t>
+  </si>
+  <si>
+    <t>5.476999999999954</t>
+  </si>
+  <si>
+    <t>12.259000000000242</t>
+  </si>
+  <si>
+    <t>4.907000000000217</t>
+  </si>
+  <si>
+    <t>4.599000000000242</t>
+  </si>
+  <si>
+    <t>4.494999999999916</t>
+  </si>
+  <si>
+    <t>131.79799999999986</t>
+  </si>
+  <si>
+    <t>1059.7889999999998</t>
+  </si>
+  <si>
+    <t>1740.0329999999994</t>
+  </si>
+  <si>
+    <t>406.00199999999995</t>
+  </si>
+  <si>
+    <t>0.08700000000061436</t>
+  </si>
+  <si>
+    <t>0.0010000000010279564</t>
+  </si>
+  <si>
+    <t>5.738000000000909</t>
+  </si>
+  <si>
+    <t>4.887999999999337</t>
+  </si>
+  <si>
+    <t>5.489999999999995</t>
+  </si>
+  <si>
+    <t>12.475000000000236</t>
+  </si>
+  <si>
+    <t>4.919000000000118</t>
+  </si>
+  <si>
+    <t>4.531000000000063</t>
+  </si>
+  <si>
+    <t>4.826999999999693</t>
+  </si>
+  <si>
+    <t>144.285</t>
+  </si>
+  <si>
+    <t>990.148</t>
+  </si>
+  <si>
+    <t>1522.2790000000002</t>
+  </si>
+  <si>
+    <t>356.37400000000065</t>
+  </si>
+  <si>
+    <t>5.236000000000018</t>
+  </si>
+  <si>
+    <t>5.671999999999677</t>
+  </si>
+  <si>
+    <t>6.292999999999882</t>
+  </si>
+  <si>
+    <t>14.54100000000036</t>
+  </si>
+  <si>
+    <t>6.145000000000067</t>
+  </si>
+  <si>
+    <t>5.608000000000057</t>
+  </si>
+  <si>
+    <t>6.914000000000087</t>
+  </si>
+  <si>
+    <t>78.23899999999995</t>
+  </si>
+  <si>
+    <t>202.09100000000024</t>
+  </si>
+  <si>
+    <t>368.8030000000007</t>
+  </si>
+  <si>
+    <t>206.6049999999997</t>
+  </si>
+  <si>
+    <t>17.96400000000009</t>
+  </si>
+  <si>
+    <t>59.618999999999645</t>
+  </si>
+  <si>
+    <t>0.6380000000003605</t>
+  </si>
+  <si>
+    <t>13.399000000000605</t>
+  </si>
+  <si>
+    <t>0.0800000000005241</t>
+  </si>
+  <si>
+    <t>5.053000000000196</t>
+  </si>
+  <si>
+    <t>4.865999999999815</t>
+  </si>
+  <si>
+    <t>6.7149999999998045</t>
+  </si>
+  <si>
+    <t>17.1739999999998</t>
+  </si>
+  <si>
+    <t>6.194000000000255</t>
+  </si>
+  <si>
+    <t>5.300999999999778</t>
+  </si>
+  <si>
+    <t>5.163000000000029</t>
+  </si>
+  <si>
+    <t>81.73800000000008</t>
+  </si>
+  <si>
+    <t>195.19899999999967</t>
+  </si>
+  <si>
+    <t>370.1819999999998</t>
+  </si>
+  <si>
+    <t>234.8430000000006</t>
+  </si>
+  <si>
+    <t>18.949000000000105</t>
+  </si>
+  <si>
+    <t>69.42500000000074</t>
+  </si>
+  <si>
+    <t>0.652000000000541</t>
+  </si>
+  <si>
+    <t>13.92799999999994</t>
+  </si>
+  <si>
+    <t>0.08400000000108321</t>
+  </si>
+  <si>
+    <t>5.860000000000198</t>
+  </si>
+  <si>
+    <t>5.777000000000143</t>
+  </si>
+  <si>
+    <t>6.728999999999985</t>
+  </si>
+  <si>
+    <t>15.412000000000425</t>
+  </si>
+  <si>
+    <t>6.359999999999921</t>
+  </si>
+  <si>
+    <t>5.276999999999976</t>
+  </si>
+  <si>
+    <t>5.130999999999997</t>
+  </si>
+  <si>
+    <t>81.48800000000023</t>
+  </si>
+  <si>
+    <t>206.46900000000022</t>
+  </si>
+  <si>
+    <t>356.7810000000007</t>
+  </si>
+  <si>
+    <t>228.41100000000037</t>
+  </si>
+  <si>
+    <t>18.54099999999992</t>
+  </si>
+  <si>
+    <t>63.485000000000014</t>
+  </si>
+  <si>
+    <t>0.700000000000145</t>
+  </si>
+  <si>
+    <t>12.915000000000454</t>
+  </si>
+  <si>
+    <t>0.07800000000024454</t>
+  </si>
+  <si>
+    <t>5.115999999999232</t>
+  </si>
+  <si>
+    <t>7.388999999999868</t>
   </si>
 </sst>
 </file>
@@ -1947,147 +2394,183 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times3_1" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_4" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1_1" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3_1" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2_1" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times3_1" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1_1" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2_1" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_1" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times3_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1_4" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times1" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3_1" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2_1" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1_1" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times3_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times3_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times3_3" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2_1" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="strings-times2_3" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times2_4" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="records-times1_4" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_4" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times3_5" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2_3" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times2_4" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ints-times1_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2353,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView tabSelected="1" topLeftCell="D115" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,8 +2850,7 @@
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" customWidth="1"/>
+    <col min="12" max="13" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -5686,7 +6168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J113" t="s">
         <v>37</v>
       </c>
@@ -5700,7 +6182,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J114" t="s">
         <v>38</v>
       </c>
@@ -5712,6 +6194,837 @@
       </c>
       <c r="M114" s="1" t="s">
         <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J117" t="s">
+        <v>6</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J118" t="s">
+        <v>8</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J119" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J120" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" t="s">
+        <v>13</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J122" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J123" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J124" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J126" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J127" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J128" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J129" t="s">
+        <v>24</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J130" t="s">
+        <v>25</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J131" t="s">
+        <v>119</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J132" t="s">
+        <v>121</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>31</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J133" t="s">
+        <v>123</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J134" t="s">
+        <v>125</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J135" t="s">
+        <v>27</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>36</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J136" t="s">
+        <v>29</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J137" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J138" t="s">
+        <v>33</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J139" t="s">
+        <v>35</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J140" t="s">
+        <v>36</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J141" t="s">
+        <v>37</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J142" t="s">
+        <v>38</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
